--- a/Documents/evaluate_performance.xlsx
+++ b/Documents/evaluate_performance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,34 +542,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:R16"/>
+  <dimension ref="C2:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:18" x14ac:dyDescent="0.2">
       <c r="O2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:18" x14ac:dyDescent="0.2">
       <c r="O3" s="8" t="s">
         <v>10</v>
       </c>
@@ -580,7 +580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C4" s="19" t="s">
         <v>0</v>
       </c>
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -647,36 +647,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
-        <v>1377</v>
+        <v>1185</v>
       </c>
       <c r="D6" s="1">
-        <v>259</v>
+        <v>568</v>
       </c>
       <c r="E6" s="1">
-        <v>404</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1">
-        <v>344</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="I6" s="5">
         <f>F6/C6</f>
-        <v>0.24981844589687727</v>
+        <v>4.9789029535864976E-2</v>
       </c>
       <c r="J6" s="5">
         <f>G6/D6</f>
-        <v>0.26254826254826252</v>
+        <v>1.7605633802816902E-2</v>
       </c>
       <c r="K6" s="5">
         <f>H6/E6</f>
-        <v>0.24009900990099009</v>
+        <v>0.96610169491525422</v>
       </c>
       <c r="O6" t="s">
         <v>14</v>
@@ -689,7 +689,7 @@
       </c>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:18" x14ac:dyDescent="0.2">
       <c r="O7" t="s">
         <v>15</v>
       </c>
@@ -703,7 +703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:18" x14ac:dyDescent="0.2">
       <c r="O8" t="s">
         <v>16</v>
       </c>
@@ -717,7 +717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:18" x14ac:dyDescent="0.2">
       <c r="O9" t="s">
         <v>24</v>
       </c>
@@ -728,7 +728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:18" x14ac:dyDescent="0.2">
       <c r="H11" s="8" t="s">
         <v>6</v>
       </c>
@@ -740,7 +740,7 @@
       </c>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
@@ -753,13 +753,13 @@
       </c>
       <c r="I12" s="18">
         <f>($K$12/$Q$9+($C$6+$D$6)*$Q$8/2)/$C$6</f>
-        <v>60.411401597676111</v>
+        <v>75.297468354430379</v>
       </c>
       <c r="K12">
-        <v>2773</v>
-      </c>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C13" s="10" t="s">
         <v>26</v>
       </c>
@@ -769,17 +769,17 @@
       <c r="G13" s="10"/>
       <c r="H13" s="15">
         <f>(1-$I$6)*$Q$5+$I$6*$Q$8+(1-$J$6)*$Q$5+$J$6*$Q$8</f>
-        <v>52.724304136068838</v>
+        <v>8.6720716705295064</v>
       </c>
       <c r="I13" s="18">
         <f>($K$13/$Q$9+($G$6+$F$6)*$Q$8/2)/$C$6</f>
-        <v>16.893246187363836</v>
+        <v>4.8358649789029533</v>
       </c>
       <c r="K13">
-        <v>5324</v>
-      </c>
-    </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+        <v>4561</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C14" s="11" t="s">
         <v>27</v>
       </c>
@@ -789,17 +789,20 @@
       <c r="G14" s="11"/>
       <c r="H14" s="15">
         <f>(1-$I$6)*$Q$5+$I$6*((1-$K$6)*$Q$7+$K$6*$Q$8)+(1-$J$6)*$Q$5+$J$6*((1-$K$6)*$Q$7+$K$6*$Q$8)</f>
-        <v>17.682986922357916</v>
+        <v>8.4664608332250531</v>
       </c>
       <c r="I14" s="18">
         <f>($K$14/$Q$9+($G$6+$F$6)*$Q$7/2+$H$6*$Q$8/$Q$9)/$C$6</f>
-        <v>7.2995642701525059</v>
+        <v>4.7772151898734174</v>
       </c>
       <c r="K14">
-        <v>6283</v>
-      </c>
-    </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+        <v>4932</v>
+      </c>
+      <c r="N14">
+        <v>5532</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C15" s="12" t="s">
         <v>28</v>
       </c>
@@ -810,7 +813,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C16" s="13" t="s">
         <v>29</v>
       </c>
@@ -820,6 +823,11 @@
       <c r="G16" s="13"/>
       <c r="H16" s="17"/>
       <c r="I16" s="18"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>43930</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documents/evaluate_performance.xlsx
+++ b/Documents/evaluate_performance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Access number</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Time execute</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -126,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +144,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -210,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -233,11 +242,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -259,6 +296,19 @@
     <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,34 +592,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:R26"/>
+  <dimension ref="C2:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:18" x14ac:dyDescent="0.25">
       <c r="O2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:18" x14ac:dyDescent="0.25">
       <c r="O3" s="8" t="s">
         <v>10</v>
       </c>
@@ -580,22 +629,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C4" s="19" t="s">
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19" t="s">
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
       <c r="O4" t="s">
         <v>9</v>
       </c>
@@ -606,7 +655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -647,36 +696,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
-        <v>1185</v>
+        <v>59558</v>
       </c>
       <c r="D6" s="1">
-        <v>568</v>
+        <v>41546</v>
       </c>
       <c r="E6" s="1">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I6" s="5">
         <f>F6/C6</f>
-        <v>4.9789029535864976E-2</v>
+        <v>5.5408173545115689E-4</v>
       </c>
       <c r="J6" s="5">
         <f>G6/D6</f>
-        <v>1.7605633802816902E-2</v>
+        <v>4.8139411736388581E-4</v>
       </c>
       <c r="K6" s="5">
         <f>H6/E6</f>
-        <v>0.96610169491525422</v>
+        <v>1</v>
       </c>
       <c r="O6" t="s">
         <v>14</v>
@@ -689,7 +738,7 @@
       </c>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
       <c r="O7" t="s">
         <v>15</v>
       </c>
@@ -703,7 +752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
       <c r="O8" t="s">
         <v>16</v>
       </c>
@@ -717,7 +766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
       <c r="O9" t="s">
         <v>24</v>
       </c>
@@ -728,7 +777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
       <c r="H11" s="8" t="s">
         <v>6</v>
       </c>
@@ -740,7 +789,7 @@
       </c>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
@@ -753,13 +802,13 @@
       </c>
       <c r="I12" s="18">
         <f>($K$12/$Q$9+($C$6+$D$6)*$Q$8/2)/$C$6</f>
-        <v>75.297468354430379</v>
+        <v>86.177155042143795</v>
       </c>
       <c r="K12">
-        <v>3155</v>
-      </c>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.2">
+        <v>154678</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C13" s="10" t="s">
         <v>26</v>
       </c>
@@ -769,17 +818,21 @@
       <c r="G13" s="10"/>
       <c r="H13" s="15">
         <f>(1-$I$6)*$Q$5+$I$6*$Q$8+(1-$J$6)*$Q$5+$J$6*$Q$8</f>
-        <v>8.6720716705295064</v>
+        <v>2.1025121094286892</v>
       </c>
       <c r="I13" s="18">
         <f>($K$13/$Q$9+($G$6+$F$6)*$Q$8/2)/$C$6</f>
-        <v>4.8358649789029533</v>
+        <v>2.0426475032741194</v>
       </c>
       <c r="K13">
-        <v>4561</v>
-      </c>
-    </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.2">
+        <v>238012</v>
+      </c>
+      <c r="L13">
+        <f>K14*G20</f>
+        <v>201868.827630113</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
         <v>27</v>
       </c>
@@ -789,20 +842,21 @@
       <c r="G14" s="11"/>
       <c r="H14" s="15">
         <f>(1-$I$6)*$Q$5+$I$6*((1-$K$6)*$Q$7+$K$6*$Q$8)+(1-$J$6)*$Q$5+$J$6*((1-$K$6)*$Q$7+$K$6*$Q$8)</f>
-        <v>8.4664608332250531</v>
+        <v>2.1025121094286892</v>
       </c>
       <c r="I14" s="18">
         <f>($K$14/$Q$9+($G$6+$F$6)*$Q$7/2+$H$6*$Q$8/$Q$9)/$C$6</f>
-        <v>4.7772151898734174</v>
+        <v>2.0355032069579235</v>
       </c>
       <c r="K14">
-        <v>4932</v>
-      </c>
-      <c r="N14">
-        <v>5532</v>
-      </c>
-    </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.2">
+        <v>238231</v>
+      </c>
+      <c r="L14">
+        <f>K14-30</f>
+        <v>238201</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>28</v>
       </c>
@@ -813,7 +867,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C16" s="13" t="s">
         <v>29</v>
       </c>
@@ -824,9 +878,39 @@
       <c r="H16" s="17"/>
       <c r="I16" s="18"/>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G26">
-        <v>43930</v>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f>2773/4925</f>
+        <v>0.56304568527918786</v>
+      </c>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f>5324/6283</f>
+        <v>0.84736590800572975</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="4:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+    </row>
+    <row r="30" spans="4:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -836,5 +920,6 @@
     <mergeCell ref="I4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/evaluate_performance.xlsx
+++ b/Documents/evaluate_performance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -594,31 +594,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" customWidth="1"/>
+    <col min="10" max="10" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:18" x14ac:dyDescent="0.2">
       <c r="O2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:18" x14ac:dyDescent="0.2">
       <c r="O3" s="8" t="s">
         <v>10</v>
       </c>
@@ -629,7 +629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C4" s="24" t="s">
         <v>0</v>
       </c>
@@ -655,7 +655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -696,36 +696,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
-        <v>59558</v>
+        <v>773</v>
       </c>
       <c r="D6" s="1">
-        <v>41546</v>
+        <v>429</v>
       </c>
       <c r="E6" s="1">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="F6" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="H6" s="1">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="I6" s="5">
         <f>F6/C6</f>
-        <v>5.5408173545115689E-4</v>
+        <v>3.7516170763260026E-2</v>
       </c>
       <c r="J6" s="5">
         <f>G6/D6</f>
-        <v>4.8139411736388581E-4</v>
+        <v>0.22843822843822845</v>
       </c>
       <c r="K6" s="5">
         <f>H6/E6</f>
-        <v>1</v>
+        <v>0.80672268907563027</v>
       </c>
       <c r="O6" t="s">
         <v>14</v>
@@ -738,7 +738,7 @@
       </c>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:18" x14ac:dyDescent="0.2">
       <c r="O7" t="s">
         <v>15</v>
       </c>
@@ -752,7 +752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:18" x14ac:dyDescent="0.2">
       <c r="O8" t="s">
         <v>16</v>
       </c>
@@ -766,7 +766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:18" x14ac:dyDescent="0.2">
       <c r="O9" t="s">
         <v>24</v>
       </c>
@@ -777,7 +777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:18" x14ac:dyDescent="0.2">
       <c r="H11" s="8" t="s">
         <v>6</v>
       </c>
@@ -789,7 +789,7 @@
       </c>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
@@ -802,13 +802,13 @@
       </c>
       <c r="I12" s="18">
         <f>($K$12/$Q$9+($C$6+$D$6)*$Q$8/2)/$C$6</f>
-        <v>86.177155042143795</v>
+        <v>78.723803363518755</v>
       </c>
       <c r="K12">
-        <v>154678</v>
-      </c>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C13" s="10" t="s">
         <v>26</v>
       </c>
@@ -818,21 +818,17 @@
       <c r="G13" s="10"/>
       <c r="H13" s="15">
         <f>(1-$I$6)*$Q$5+$I$6*$Q$8+(1-$J$6)*$Q$5+$J$6*$Q$8</f>
-        <v>2.1025121094286892</v>
+        <v>28.329485520947358</v>
       </c>
       <c r="I13" s="18">
         <f>($K$13/$Q$9+($G$6+$F$6)*$Q$8/2)/$C$6</f>
-        <v>2.0426475032741194</v>
+        <v>10.326002587322122</v>
       </c>
       <c r="K13">
-        <v>238012</v>
-      </c>
-      <c r="L13">
-        <f>K14*G20</f>
-        <v>201868.827630113</v>
-      </c>
-    </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C14" s="11" t="s">
         <v>27</v>
       </c>
@@ -842,21 +838,17 @@
       <c r="G14" s="11"/>
       <c r="H14" s="15">
         <f>(1-$I$6)*$Q$5+$I$6*((1-$K$6)*$Q$7+$K$6*$Q$8)+(1-$J$6)*$Q$5+$J$6*((1-$K$6)*$Q$7+$K$6*$Q$8)</f>
-        <v>2.1025121094286892</v>
+        <v>23.703219921392055</v>
       </c>
       <c r="I14" s="18">
         <f>($K$14/$Q$9+($G$6+$F$6)*$Q$7/2+$H$6*$Q$8/$Q$9)/$C$6</f>
-        <v>2.0355032069579235</v>
+        <v>9.5491591203104793</v>
       </c>
       <c r="K14">
-        <v>238231</v>
-      </c>
-      <c r="L14">
-        <f>K14-30</f>
-        <v>238201</v>
-      </c>
-    </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C15" s="12" t="s">
         <v>28</v>
       </c>
@@ -867,7 +859,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C16" s="13" t="s">
         <v>29</v>
       </c>
@@ -878,21 +870,11 @@
       <c r="H16" s="17"/>
       <c r="I16" s="18"/>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G19">
-        <f>2773/4925</f>
-        <v>0.56304568527918786</v>
-      </c>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.2">
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G20">
-        <f>5324/6283</f>
-        <v>0.84736590800572975</v>
-      </c>
-    </row>
-    <row r="28" spans="4:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="4:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D29" s="20"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -903,12 +885,12 @@
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
     </row>
-    <row r="30" spans="4:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D30" s="20"/>
       <c r="E30" s="21"/>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
         <v>31</v>
       </c>
